--- a/data/trans_dic/P38A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,51; 93,57</t>
+          <t>87,6; 93,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,74; 90,43</t>
+          <t>83,87; 90,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,38; 91,24</t>
+          <t>84,61; 91,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,13; 94,66</t>
+          <t>88,03; 94,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,57; 95,74</t>
+          <t>90,89; 95,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,81; 92,98</t>
+          <t>87,54; 92,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,78; 93,29</t>
+          <t>89,07; 93,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,89; 92,08</t>
+          <t>87,76; 92,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,09; 91,31</t>
+          <t>86,94; 91,33</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,48; 93,23</t>
+          <t>87,14; 93,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,13; 91,17</t>
+          <t>84,49; 91,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,71; 91,96</t>
+          <t>85,75; 91,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,62; 96,2</t>
+          <t>90,94; 96,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,43; 93,16</t>
+          <t>86,65; 93,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,3; 92,39</t>
+          <t>86,27; 92,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,59; 93,8</t>
+          <t>90,22; 94,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,63; 91,13</t>
+          <t>86,41; 91,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,93; 91,47</t>
+          <t>86,81; 91,53</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,32; 92,15</t>
+          <t>87,26; 92,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,35; 90,8</t>
+          <t>85,14; 90,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,98; 90,69</t>
+          <t>20,38; 90,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,22; 94,3</t>
+          <t>87,31; 94,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,88; 95,8</t>
+          <t>87,41; 95,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,56; 96,08</t>
+          <t>89,7; 96,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,11; 92,19</t>
+          <t>88,04; 92,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,58; 91,44</t>
+          <t>86,48; 91,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,98; 91,53</t>
+          <t>27,41; 91,58</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,98; 89,93</t>
+          <t>86,02; 90,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,85; 88,87</t>
+          <t>84,83; 88,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,23; 87,99</t>
+          <t>82,14; 87,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,21; 90,89</t>
+          <t>86,33; 90,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,66; 90,99</t>
+          <t>86,53; 91,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,05; 96,45</t>
+          <t>90,28; 96,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,76; 89,78</t>
+          <t>86,73; 89,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>86,35; 89,26</t>
+          <t>86,34; 89,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,81; 92,59</t>
+          <t>86,85; 92,17</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,5; 86,56</t>
+          <t>79,19; 86,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,02; 85,41</t>
+          <t>78,79; 85,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,35; 87,61</t>
+          <t>80,51; 87,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,9; 94,56</t>
+          <t>90,66; 94,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>87,47; 91,93</t>
+          <t>87,46; 91,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,87; 92,0</t>
+          <t>61,7; 92,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,79; 90,41</t>
+          <t>87,06; 90,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,55; 88,43</t>
+          <t>84,53; 88,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,21; 89,44</t>
+          <t>69,78; 89,32</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,67; 56,85</t>
+          <t>44,21; 56,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,79; 59,51</t>
+          <t>46,65; 59,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,6; 55,28</t>
+          <t>34,02; 55,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,85; 87,84</t>
+          <t>83,64; 88,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>86,36; 90,35</t>
+          <t>86,43; 90,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>81,35; 87,13</t>
+          <t>81,0; 86,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>76,84; 81,25</t>
+          <t>76,98; 81,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>79,27; 83,42</t>
+          <t>78,96; 83,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>70,34; 78,06</t>
+          <t>70,81; 78,47</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,05; 86,58</t>
+          <t>84,0; 86,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,38; 84,89</t>
+          <t>82,31; 84,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>57,96; 84,2</t>
+          <t>59,52; 84,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>88,69; 90,77</t>
+          <t>88,82; 90,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,8; 90,76</t>
+          <t>88,84; 90,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,78; 90,85</t>
+          <t>81,23; 90,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,68; 88,37</t>
+          <t>86,8; 88,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>85,96; 87,58</t>
+          <t>86,02; 87,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>73,12; 87,07</t>
+          <t>70,12; 86,92</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han tomado la tensión alguna vez un/a profesional sanitario/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>394493</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>374301</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>446169</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>288051</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>323924</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>405565</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>682544</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>698225</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>851734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>380401; 406307</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>359011; 387654</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>427457; 461303</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>275896; 296828</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>314507; 331686</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>391722; 415657</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>665933; 697772</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>679351; 713122</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>828301; 870119</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>377804</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>331486</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>403499</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>317049</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>335730</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>342270</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>694854</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>667217</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>745769</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>364165; 388859</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>317837; 343300</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>387794; 415832</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>306571; 325116</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>322583; 346468</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>330051; 352701</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>681194; 710141</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>646732; 682942</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>724684; 764071</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>564459</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>457289</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>380385</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>237249</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>152708</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>156009</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>801708</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>609996</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>536394</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>548361; 578897</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>441894; 472006</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>136182; 605583</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>227130; 245601</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>144446; 158293</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>149715; 160308</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>782218; 818075</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>591788; 624831</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>228916; 764845</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1662</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2141</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1010632</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>992794</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>884558</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>680860</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>733902</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>908671</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1691493</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1726696</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1793229</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>988223; 1033966</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>968768; 1015799</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>850018; 910573</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>661846; 696895</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>712212; 748995</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>883022; 944658</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1661268; 1720602</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1696753; 1757648</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1748232; 1855298</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>420576</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>507005</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>400452</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>704234</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>662356</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>706132</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1124810</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1169362</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1106584</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>400813; 436349</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>485423; 524980</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>382445; 416585</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>688599; 716948</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>643779; 676064</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>519145; 775958</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1101912; 1147577</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1142939; 1193882</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>918532; 1175816</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1044</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>133289</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>150371</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>106082</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>945842</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>954569</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>641761</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1079131</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1104940</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>747843</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>116692; 148449</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>131161; 166845</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>81823; 134200</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>919792; 969160</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>932526; 975131</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>616701; 662129</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1049692; 1109909</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1073959; 1133076</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>709450; 786133</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2706</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2885</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4824</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5639</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5648</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7709</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2901254</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2813247</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2621144</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3173286</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3163190</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3160409</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6074541</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5976437</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5781553</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2855645; 2942410</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2767802; 2853368</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2009597; 2847479</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3141066; 3210028</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3128726; 3198998</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2906252; 3248565</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6020164; 6134636</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5921742; 6030694</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4876191; 6043921</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P38A-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
